--- a/tut05/output/0501EE09.xlsx
+++ b/tut05/output/0501EE09.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.020408163265307</v>
+        <v>9.02</v>
       </c>
       <c r="C6" t="n">
-        <v>9.340909090909092</v>
+        <v>9.34</v>
       </c>
       <c r="D6" t="n">
-        <v>8.913043478260869</v>
+        <v>8.91</v>
       </c>
       <c r="E6" t="n">
-        <v>9.630434782608695</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>9.23076923076923</v>
+        <v>9.23</v>
       </c>
       <c r="G6" t="n">
         <v>8.85</v>
       </c>
       <c r="H6" t="n">
-        <v>9.186046511627907</v>
+        <v>9.19</v>
       </c>
       <c r="I6" t="n">
-        <v>9.684210526315789</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.020408163265307</v>
+        <v>9.02</v>
       </c>
       <c r="C8" t="n">
-        <v>9.172043010752688</v>
+        <v>9.17</v>
       </c>
       <c r="D8" t="n">
-        <v>9.086330935251798</v>
+        <v>9.09</v>
       </c>
       <c r="E8" t="n">
-        <v>9.221621621621622</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>9.223214285714286</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>9.166666666666666</v>
+        <v>9.17</v>
       </c>
       <c r="H8" t="n">
-        <v>9.169381107491857</v>
+        <v>9.17</v>
       </c>
       <c r="I8" t="n">
-        <v>9.226086956521739</v>
+        <v>9.23</v>
       </c>
     </row>
   </sheetData>
